--- a/app/src/main/assets/Modeling and Simulation.xlsx
+++ b/app/src/main/assets/Modeling and Simulation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\FILES\Others\AcademicAlly Assessments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\AndroidStudioProjects\AcademicAlly\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA77C610-46D3-40DD-A186-E3C7680B0848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28FCDC6-EB74-4E45-908A-F04DBBEC4DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multiple Choice" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="323">
   <si>
     <t>What is the first electronic programmable computer that could solve a large class of numerical problems?</t>
   </si>
@@ -993,6 +993,9 @@
   </si>
   <si>
     <t>Real-life Applications of Modeling and Simulation</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -1320,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1336,7 +1339,7 @@
     <col min="6" max="6" width="109.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1358,8 +1361,11 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1381,8 +1387,11 @@
       <c r="G2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1404,8 +1413,11 @@
       <c r="G3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -1427,8 +1439,11 @@
       <c r="G4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1450,8 +1465,11 @@
       <c r="G5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -1473,8 +1491,11 @@
       <c r="G6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -1496,8 +1517,11 @@
       <c r="G7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -1519,8 +1543,11 @@
       <c r="G8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -1542,8 +1569,11 @@
       <c r="G9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -1565,8 +1595,11 @@
       <c r="G10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>126</v>
       </c>
@@ -1588,8 +1621,11 @@
       <c r="G11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -1611,8 +1647,11 @@
       <c r="G12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -1634,8 +1673,11 @@
       <c r="G13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -1657,8 +1699,11 @@
       <c r="G14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -1680,8 +1725,11 @@
       <c r="G15" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>175</v>
       </c>
@@ -1703,8 +1751,11 @@
       <c r="G16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>175</v>
       </c>
@@ -1726,8 +1777,11 @@
       <c r="G17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>175</v>
       </c>
@@ -1749,8 +1803,11 @@
       <c r="G18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>175</v>
       </c>
@@ -1772,8 +1829,11 @@
       <c r="G19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -1795,8 +1855,11 @@
       <c r="G20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>214</v>
       </c>
@@ -1818,8 +1881,11 @@
       <c r="G21" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>214</v>
       </c>
@@ -1841,8 +1907,11 @@
       <c r="G22" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>214</v>
       </c>
@@ -1864,8 +1933,11 @@
       <c r="G23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>214</v>
       </c>
@@ -1887,8 +1959,11 @@
       <c r="G24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>214</v>
       </c>
@@ -1910,8 +1985,11 @@
       <c r="G25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>256</v>
       </c>
@@ -1933,8 +2011,11 @@
       <c r="G26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>256</v>
       </c>
@@ -1956,8 +2037,11 @@
       <c r="G27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>256</v>
       </c>
@@ -1979,8 +2063,11 @@
       <c r="G28" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>256</v>
       </c>
@@ -2002,8 +2089,11 @@
       <c r="G29" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>256</v>
       </c>
@@ -2025,8 +2115,11 @@
       <c r="G30" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>295</v>
       </c>
@@ -2048,8 +2141,11 @@
       <c r="G31" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>295</v>
       </c>
@@ -2071,8 +2167,11 @@
       <c r="G32" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>295</v>
       </c>
@@ -2094,8 +2193,11 @@
       <c r="G33" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>295</v>
       </c>
@@ -2117,8 +2219,11 @@
       <c r="G34" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>295</v>
       </c>
@@ -2140,8 +2245,11 @@
       <c r="G35" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>321</v>
       </c>
@@ -2163,8 +2271,11 @@
       <c r="G36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>321</v>
       </c>
@@ -2186,8 +2297,11 @@
       <c r="G37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>321</v>
       </c>
@@ -2209,8 +2323,11 @@
       <c r="G38" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>321</v>
       </c>
@@ -2232,8 +2349,11 @@
       <c r="G39" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>321</v>
       </c>
@@ -2254,6 +2374,9 @@
       </c>
       <c r="G40" t="s">
         <v>75</v>
+      </c>
+      <c r="H40" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -2263,10 +2386,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FCD4E5-4D44-47AE-821E-F27324B46DA5}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2276,7 +2399,7 @@
     <col min="3" max="3" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2286,8 +2409,11 @@
       <c r="C1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -2297,8 +2423,11 @@
       <c r="C2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -2308,8 +2437,11 @@
       <c r="C3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -2319,8 +2451,11 @@
       <c r="C4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2330,8 +2465,11 @@
       <c r="C5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -2341,8 +2479,11 @@
       <c r="C6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -2352,8 +2493,11 @@
       <c r="C7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -2363,8 +2507,11 @@
       <c r="C8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -2374,8 +2521,11 @@
       <c r="C9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -2385,8 +2535,11 @@
       <c r="C10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -2396,8 +2549,11 @@
       <c r="C11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -2407,8 +2563,11 @@
       <c r="C12" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -2418,8 +2577,11 @@
       <c r="C13" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -2429,8 +2591,11 @@
       <c r="C14" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -2440,8 +2605,11 @@
       <c r="C15" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -2451,8 +2619,11 @@
       <c r="C16" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -2462,8 +2633,11 @@
       <c r="C17" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>126</v>
       </c>
@@ -2473,8 +2647,11 @@
       <c r="C18" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>175</v>
       </c>
@@ -2484,8 +2661,11 @@
       <c r="C19" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -2495,8 +2675,11 @@
       <c r="C20" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>175</v>
       </c>
@@ -2506,8 +2689,11 @@
       <c r="C21" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>175</v>
       </c>
@@ -2517,8 +2703,11 @@
       <c r="C22" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>175</v>
       </c>
@@ -2528,8 +2717,11 @@
       <c r="C23" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>175</v>
       </c>
@@ -2539,8 +2731,11 @@
       <c r="C24" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>175</v>
       </c>
@@ -2550,8 +2745,11 @@
       <c r="C25" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>175</v>
       </c>
@@ -2561,8 +2759,11 @@
       <c r="C26" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -2572,8 +2773,11 @@
       <c r="C27" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>214</v>
       </c>
@@ -2583,8 +2787,11 @@
       <c r="C28" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>214</v>
       </c>
@@ -2594,8 +2801,11 @@
       <c r="C29" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>214</v>
       </c>
@@ -2605,8 +2815,11 @@
       <c r="C30" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>214</v>
       </c>
@@ -2616,8 +2829,11 @@
       <c r="C31" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>214</v>
       </c>
@@ -2627,8 +2843,11 @@
       <c r="C32" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>256</v>
       </c>
@@ -2638,8 +2857,11 @@
       <c r="C33" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>256</v>
       </c>
@@ -2649,8 +2871,11 @@
       <c r="C34" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>256</v>
       </c>
@@ -2660,8 +2885,11 @@
       <c r="C35" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>256</v>
       </c>
@@ -2671,8 +2899,11 @@
       <c r="C36" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>256</v>
       </c>
@@ -2682,8 +2913,11 @@
       <c r="C37" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>256</v>
       </c>
@@ -2693,8 +2927,11 @@
       <c r="C38" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>295</v>
       </c>
@@ -2704,8 +2941,11 @@
       <c r="C39" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>295</v>
       </c>
@@ -2715,8 +2955,11 @@
       <c r="C40" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>295</v>
       </c>
@@ -2726,8 +2969,11 @@
       <c r="C41" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>295</v>
       </c>
@@ -2737,8 +2983,11 @@
       <c r="C42" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>295</v>
       </c>
@@ -2748,8 +2997,11 @@
       <c r="C43" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>295</v>
       </c>
@@ -2759,8 +3011,11 @@
       <c r="C44" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>295</v>
       </c>
@@ -2769,6 +3024,9 @@
       </c>
       <c r="C45" t="s">
         <v>271</v>
+      </c>
+      <c r="D45" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -2778,10 +3036,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873C3B93-BF88-4B80-BE26-48F4B4C1D6F2}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2790,7 +3048,7 @@
     <col min="2" max="2" width="129.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2800,8 +3058,11 @@
       <c r="C1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -2811,8 +3072,11 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -2822,8 +3086,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -2833,8 +3100,11 @@
       <c r="C4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2844,8 +3114,11 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2855,8 +3128,11 @@
       <c r="C6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -2866,8 +3142,11 @@
       <c r="C7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -2877,8 +3156,11 @@
       <c r="C8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -2888,8 +3170,11 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -2899,8 +3184,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -2910,8 +3198,11 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -2921,8 +3212,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -2932,8 +3226,11 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2943,8 +3240,11 @@
       <c r="C14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2954,8 +3254,11 @@
       <c r="C15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -2965,8 +3268,11 @@
       <c r="C16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -2976,8 +3282,11 @@
       <c r="C17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -2987,8 +3296,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -2998,8 +3310,11 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -3009,8 +3324,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -3020,8 +3338,11 @@
       <c r="C21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>126</v>
       </c>
@@ -3031,8 +3352,11 @@
       <c r="C22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -3042,8 +3366,11 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>126</v>
       </c>
@@ -3053,8 +3380,11 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>126</v>
       </c>
@@ -3064,8 +3394,11 @@
       <c r="C25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>175</v>
       </c>
@@ -3075,8 +3408,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -3086,8 +3422,11 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>175</v>
       </c>
@@ -3097,8 +3436,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>175</v>
       </c>
@@ -3108,8 +3450,11 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>175</v>
       </c>
@@ -3119,8 +3464,11 @@
       <c r="C30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>214</v>
       </c>
@@ -3130,8 +3478,11 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>214</v>
       </c>
@@ -3141,8 +3492,11 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>214</v>
       </c>
@@ -3152,8 +3506,11 @@
       <c r="C33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>214</v>
       </c>
@@ -3163,8 +3520,11 @@
       <c r="C34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>214</v>
       </c>
@@ -3174,8 +3534,11 @@
       <c r="C35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>256</v>
       </c>
@@ -3185,8 +3548,11 @@
       <c r="C36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>256</v>
       </c>
@@ -3196,8 +3562,11 @@
       <c r="C37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>256</v>
       </c>
@@ -3207,8 +3576,11 @@
       <c r="C38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>256</v>
       </c>
@@ -3218,8 +3590,11 @@
       <c r="C39" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>256</v>
       </c>
@@ -3229,8 +3604,11 @@
       <c r="C40" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>295</v>
       </c>
@@ -3240,8 +3618,11 @@
       <c r="C41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>295</v>
       </c>
@@ -3251,8 +3632,11 @@
       <c r="C42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>295</v>
       </c>
@@ -3262,8 +3646,11 @@
       <c r="C43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>295</v>
       </c>
@@ -3273,8 +3660,11 @@
       <c r="C44" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>295</v>
       </c>
@@ -3284,8 +3674,11 @@
       <c r="C45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>321</v>
       </c>
@@ -3295,8 +3688,11 @@
       <c r="C46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>321</v>
       </c>
@@ -3306,8 +3702,11 @@
       <c r="C47" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>321</v>
       </c>
@@ -3317,8 +3716,11 @@
       <c r="C48" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>321</v>
       </c>
@@ -3328,8 +3730,11 @@
       <c r="C49" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>321</v>
       </c>
@@ -3338,6 +3743,9 @@
       </c>
       <c r="C50" t="b">
         <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
